--- a/output/out_2023-10-30T14:19:55.787/params/params_2.xlsx
+++ b/output/out_2023-10-30T14:19:55.787/params/params_2.xlsx
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.6094379124341003</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
         <v>0.2</v>
